--- a/(디지털컨버전스)자바( JAVA) 웹개발자 양성과정 5 G.xlsx
+++ b/(디지털컨버전스)자바( JAVA) 웹개발자 양성과정 5 G.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20145" windowHeight="8235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20145" windowHeight="8235" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1안" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="63">
   <si>
     <t>번호</t>
   </si>
@@ -355,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -435,22 +435,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -669,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.08984375" defaultRowHeight="15" customHeight="1"/>
@@ -706,10 +700,10 @@
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="30"/>
+      <c r="E2" s="29"/>
       <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
@@ -4154,22 +4148,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G1000"/>
+  <dimension ref="A1:G999"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.08984375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.08984375" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" customWidth="1"/>
-    <col min="5" max="6" width="2.90625" customWidth="1"/>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="3.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35.81640625" customWidth="1"/>
     <col min="8" max="26" width="6.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="20.25" customHeight="1">
+    <row r="1" spans="1:7" ht="20.25" customHeight="1">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -4177,159 +4173,388 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="2:7" ht="20.25" customHeight="1">
-      <c r="B2" s="26"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="2:7" ht="20.25" customHeight="1">
+    <row r="2" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="29"/>
+      <c r="E2" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A3" s="10"/>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="28"/>
-    </row>
-    <row r="4" spans="2:7" ht="20.25" customHeight="1">
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="2:7" ht="20.25" customHeight="1">
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="2:7" ht="20.25" customHeight="1">
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="2:7" ht="20.25" customHeight="1">
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="2:7" ht="20.25" customHeight="1">
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="2:7" ht="20.25" customHeight="1">
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="2:7" ht="20.25" customHeight="1">
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="2:7" ht="20.25" customHeight="1">
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="2:7" ht="20.25" customHeight="1">
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="2:7" ht="20.25" customHeight="1">
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="2:7" ht="20.25" customHeight="1">
+      <c r="D3" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="27"/>
+      <c r="F3" s="6">
+        <v>2</v>
+      </c>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="26">
+        <v>4</v>
+      </c>
+      <c r="F4" s="6">
+        <v>60</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="26">
+        <v>3</v>
+      </c>
+      <c r="F5" s="6">
+        <v>100</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="27" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="26">
+        <v>3</v>
+      </c>
+      <c r="F6" s="6">
+        <v>70</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="27" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="10">
+        <v>5</v>
+      </c>
+      <c r="F7" s="11">
+        <v>40</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="27" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="26">
+        <v>3</v>
+      </c>
+      <c r="F9" s="6">
+        <v>40</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="26">
+        <v>3</v>
+      </c>
+      <c r="F10" s="6">
+        <v>40</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="26">
+        <v>3</v>
+      </c>
+      <c r="F11" s="6">
+        <v>30</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="26">
+        <v>5</v>
+      </c>
+      <c r="F12" s="6">
+        <v>40</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="26">
+        <v>5</v>
+      </c>
+      <c r="F13" s="6">
+        <v>60</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A14" s="26"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
       <c r="E14" s="26"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="2:7" ht="20.25" customHeight="1">
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A15" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="26" t="s">
+        <v>44</v>
+      </c>
       <c r="E15" s="26"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="2:7" ht="20.25" customHeight="1">
-      <c r="B16" s="26"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="2:7" ht="20.25" customHeight="1">
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="2:7" ht="20.25" customHeight="1">
-      <c r="B18" s="26"/>
+      <c r="F15" s="6">
+        <v>40</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A16" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="26">
+        <v>5</v>
+      </c>
+      <c r="F16" s="6">
+        <v>40</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A17" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="26">
+        <v>5</v>
+      </c>
+      <c r="F17" s="6">
+        <v>56</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>52</v>
+      </c>
       <c r="C18" s="26"/>
       <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="2:7" ht="20.25" customHeight="1">
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="2:7" ht="20.25" customHeight="1">
-      <c r="B20" s="26"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="2:7" ht="20.25" customHeight="1">
+      <c r="E18" s="1"/>
+      <c r="F18" s="6">
+        <v>114</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A19" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="26">
+        <v>5</v>
+      </c>
+      <c r="F19" s="6">
+        <v>60</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A20" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="27"/>
+      <c r="D20" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="27"/>
+      <c r="F20" s="6">
+        <v>8</v>
+      </c>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.25" customHeight="1">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -4337,7 +4562,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:7" ht="20.25" customHeight="1">
+    <row r="22" spans="1:7" ht="20.25" customHeight="1">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -4345,7 +4570,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:7" ht="20.25" customHeight="1">
+    <row r="23" spans="1:7" ht="20.25" customHeight="1">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -4353,7 +4578,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:7" ht="20.25" customHeight="1">
+    <row r="24" spans="1:7" ht="20.25" customHeight="1">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -4361,7 +4586,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:7" ht="20.25" customHeight="1">
+    <row r="25" spans="1:7" ht="20.25" customHeight="1">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -4369,7 +4594,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:7" ht="20.25" customHeight="1">
+    <row r="26" spans="1:7" ht="20.25" customHeight="1">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -4377,7 +4602,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="2:7" ht="20.25" customHeight="1">
+    <row r="27" spans="1:7" ht="20.25" customHeight="1">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -4385,7 +4610,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="2:7" ht="20.25" customHeight="1">
+    <row r="28" spans="1:7" ht="20.25" customHeight="1">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -4393,7 +4618,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="2:7" ht="20.25" customHeight="1">
+    <row r="29" spans="1:7" ht="20.25" customHeight="1">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -4401,7 +4626,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="2:7" ht="20.25" customHeight="1">
+    <row r="30" spans="1:7" ht="20.25" customHeight="1">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -4409,7 +4634,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="2:7" ht="20.25" customHeight="1">
+    <row r="31" spans="1:7" ht="20.25" customHeight="1">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -4417,7 +4642,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="2:7" ht="20.25" customHeight="1">
+    <row r="32" spans="1:7" ht="20.25" customHeight="1">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -12160,14 +12385,6 @@
       <c r="E999" s="1"/>
       <c r="F999" s="1"/>
       <c r="G999" s="1"/>
-    </row>
-    <row r="1000" spans="2:7" ht="20.25" customHeight="1">
-      <c r="B1000" s="1"/>
-      <c r="C1000" s="1"/>
-      <c r="D1000" s="1"/>
-      <c r="E1000" s="1"/>
-      <c r="F1000" s="1"/>
-      <c r="G1000" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/(디지털컨버전스)자바( JAVA) 웹개발자 양성과정 5 G.xlsx
+++ b/(디지털컨버전스)자바( JAVA) 웹개발자 양성과정 5 G.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="66">
   <si>
     <t>번호</t>
   </si>
@@ -159,9 +159,6 @@
   </si>
   <si>
     <t>애자일SW 방법론</t>
-  </si>
-  <si>
-    <t>프로젝트 사례 및 요구분석</t>
   </si>
   <si>
     <t>2001020201_16v3</t>
@@ -313,6 +310,184 @@
         <charset val="129"/>
       </rPr>
       <t>구현</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>요구사항</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스케줄링</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로젝트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기획</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사례분석</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로세스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다이어그램</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -773,8 +948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.07421875" defaultRowHeight="15" customHeight="1"/>
@@ -831,7 +1006,7 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G3" s="6">
         <v>2</v>
@@ -998,7 +1173,7 @@
         <v>27</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>28</v>
@@ -1079,7 +1254,7 @@
         <v>27</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>39</v>
@@ -1106,7 +1281,9 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="2"/>
+      <c r="H15" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" ht="20.25" customHeight="1">
@@ -1128,7 +1305,7 @@
         <v>40</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="I16" s="1"/>
     </row>
@@ -1143,10 +1320,10 @@
         <v>38</v>
       </c>
       <c r="D17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="F17" s="5">
         <v>5</v>
@@ -1155,7 +1332,7 @@
         <v>40</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" s="1"/>
     </row>
@@ -1170,10 +1347,10 @@
         <v>15</v>
       </c>
       <c r="D18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="F18" s="5">
         <v>5</v>
@@ -1182,7 +1359,7 @@
         <v>56</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I18" s="1"/>
     </row>
@@ -1194,7 +1371,7 @@
         <v>42</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -1203,7 +1380,7 @@
         <v>114</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I19" s="1"/>
     </row>
@@ -1215,13 +1392,13 @@
         <v>42</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="F20" s="5">
         <v>5</v>
@@ -1230,7 +1407,7 @@
         <v>60</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I20" s="1"/>
     </row>
@@ -1242,10 +1419,10 @@
         <v>42</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G21" s="6">
         <v>8</v>
@@ -1266,7 +1443,7 @@
     <row r="23" spans="1:9" ht="20.25" customHeight="1">
       <c r="B23" s="12"/>
       <c r="C23" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
@@ -1277,7 +1454,7 @@
     <row r="24" spans="1:9" ht="20.25" customHeight="1">
       <c r="B24" s="12"/>
       <c r="C24" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
@@ -1288,7 +1465,7 @@
     <row r="25" spans="1:9" ht="20.25" customHeight="1">
       <c r="B25" s="12"/>
       <c r="C25" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
@@ -1306,7 +1483,7 @@
     <row r="27" spans="1:9" ht="20.25" customHeight="1">
       <c r="B27" s="12"/>
       <c r="C27" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
@@ -1319,7 +1496,7 @@
     </row>
     <row r="29" spans="1:9" ht="20.25" customHeight="1">
       <c r="C29" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H29" s="2"/>
     </row>
@@ -4252,6 +4429,6 @@
     <hyperlink ref="C29" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/(디지털컨버전스)자바( JAVA) 웹개발자 양성과정 5 G.xlsx
+++ b/(디지털컨버전스)자바( JAVA) 웹개발자 양성과정 5 G.xlsx
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>화면 구현</t>
-  </si>
-  <si>
-    <t>material-ui, card, file, redux</t>
   </si>
   <si>
     <t>개발환경</t>
@@ -489,6 +486,10 @@
       </rPr>
       <t>다이어그램</t>
     </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>bootstrap, card, file, redux</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1006,7 +1007,7 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G3" s="6">
         <v>2</v>
@@ -1091,7 +1092,7 @@
         <v>40</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="I6" s="1"/>
     </row>
@@ -1111,16 +1112,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="F8" s="5">
         <v>3</v>
@@ -1129,7 +1130,7 @@
         <v>40</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I8" s="1"/>
     </row>
@@ -1143,16 +1144,16 @@
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="F10" s="5">
         <v>3</v>
@@ -1161,7 +1162,7 @@
         <v>70</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" s="1"/>
     </row>
@@ -1170,16 +1171,16 @@
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="E11" s="10" t="s">
         <v>28</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>29</v>
       </c>
       <c r="F11" s="10">
         <v>5</v>
@@ -1188,7 +1189,7 @@
         <v>40</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="1"/>
     </row>
@@ -1197,16 +1198,16 @@
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="F12" s="5">
         <v>3</v>
@@ -1215,7 +1216,7 @@
         <v>30</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="1"/>
     </row>
@@ -1224,16 +1225,16 @@
         <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="F13" s="5">
         <v>5</v>
@@ -1242,7 +1243,7 @@
         <v>40</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="1"/>
     </row>
@@ -1251,16 +1252,16 @@
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="F14" s="5">
         <v>5</v>
@@ -1269,7 +1270,7 @@
         <v>60</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I14" s="1"/>
     </row>
@@ -1282,7 +1283,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="6"/>
       <c r="H15" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I15" s="1"/>
     </row>
@@ -1291,21 +1292,21 @@
         <v>10</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="6">
         <v>40</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I16" s="1"/>
     </row>
@@ -1314,16 +1315,16 @@
         <v>11</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="F17" s="5">
         <v>5</v>
@@ -1332,7 +1333,7 @@
         <v>40</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" s="1"/>
     </row>
@@ -1341,16 +1342,16 @@
         <v>12</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="F18" s="5">
         <v>5</v>
@@ -1359,7 +1360,7 @@
         <v>56</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I18" s="1"/>
     </row>
@@ -1368,10 +1369,10 @@
         <v>13</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -1380,7 +1381,7 @@
         <v>114</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I19" s="1"/>
     </row>
@@ -1389,16 +1390,16 @@
         <v>14</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="F20" s="5">
         <v>5</v>
@@ -1407,7 +1408,7 @@
         <v>60</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I20" s="1"/>
     </row>
@@ -1416,13 +1417,13 @@
         <v>15</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G21" s="6">
         <v>8</v>
@@ -1443,7 +1444,7 @@
     <row r="23" spans="1:9" ht="20.25" customHeight="1">
       <c r="B23" s="12"/>
       <c r="C23" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
@@ -1454,7 +1455,7 @@
     <row r="24" spans="1:9" ht="20.25" customHeight="1">
       <c r="B24" s="12"/>
       <c r="C24" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
@@ -1465,7 +1466,7 @@
     <row r="25" spans="1:9" ht="20.25" customHeight="1">
       <c r="B25" s="12"/>
       <c r="C25" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
@@ -1483,7 +1484,7 @@
     <row r="27" spans="1:9" ht="20.25" customHeight="1">
       <c r="B27" s="12"/>
       <c r="C27" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
@@ -1496,7 +1497,7 @@
     </row>
     <row r="29" spans="1:9" ht="20.25" customHeight="1">
       <c r="C29" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H29" s="2"/>
     </row>

--- a/(디지털컨버전스)자바( JAVA) 웹개발자 양성과정 5 G.xlsx
+++ b/(디지털컨버전스)자바( JAVA) 웹개발자 양성과정 5 G.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20148" windowHeight="8232"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20148" windowHeight="8232" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="1안" sheetId="1" r:id="rId1"/>
+    <sheet name="1안-2021" sheetId="1" r:id="rId1"/>
+    <sheet name="2안-2022" sheetId="2" r:id="rId2"/>
+    <sheet name="3안-2022" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="107">
   <si>
     <t>번호</t>
   </si>
@@ -66,9 +68,6 @@
   </si>
   <si>
     <t>UI 구현</t>
-  </si>
-  <si>
-    <t>js 기초 dom, react(jsx, props, state, ref), react-router</t>
   </si>
   <si>
     <t>프로그래밍 기초 및 화면 구현</t>
@@ -492,12 +491,328 @@
     <t>bootstrap, card, file, redux</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>웹 기초</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 프로그래밍 및 통합구현</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>애플리케이션 SW 구현</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>프론트엔드, 개발환경</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인 프로젝트</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀 프로젝트</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>재량교과</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>입학식, OT</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>취업세미나</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>작품발표회</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>졸업식</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>취업준비</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술면접 리뷰(개인작업, 팀작업 기초지식), 면접 자료 준비</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>포트폴리오준비, 발표준비 및 리뷰</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>프론트엔드</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>java, spring controller, uml class diagram</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>jpa(d ml, search, paging), rabbitmq, spring cloud(gateway, eureka)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>프론트엔드</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹 기초, 프론트엔드</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 구현, 보조강의:  redis session OAuth2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>배포 및 포트폴리오 정리</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 기획, 프로토타이핑 프로세스 다이어그램, 역할분배, 스케줄링, 보조강의: multipart-file, s3/cloudfront</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">프로젝트 구현, 보조강의:  transaction, relation, aggregation, query DSL, </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 구현: ec2, ubuntu, 명령어, next.js, spring jar 배포</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트케이스, 분석 객체모델, 와이어프레임, opendata, apex-chart, redis cache,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>웹기초</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(html/css/js)</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프론트엔드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(ts/react/next)</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>백엔드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(java/spring/cloud)</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>백엔드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프론트엔드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>심화</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">js </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기초</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> dom, react(jsx, props, state, ref), react-router</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인 프로젝트(react/next, hook, redux, ssr)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>html/css기초, git 기초 -&gt;  평가: my recipe</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>js기초, dom조작 -&gt; 평가: contact</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>typescript, react(next.js), redux -&gt; 평가: contact(redux)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>redux-saga, json-server, ssr/csr -&gt; 평가: saga, api get/post</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>java, spring controller, uml class diagram, axios(인라인기능)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>jpa(d ml, search, paging), redux-saga(페이지이동기능), rabbitmq, spring cloud(gateway, eureka)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로젝트</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀 프로젝트 및 심화내용</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>redux, ssr, 개인 프로젝트 기획 -&gt; 평가: contact 페이지 이동</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>js기초, dom조작 -&gt; 평가: contact 인라인</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>typescript, react(next.js) -&gt; 평가: feed 인라인</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11">
+  <fonts count="17">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -566,8 +881,47 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -580,8 +934,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -640,11 +1000,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -726,10 +1095,76 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -949,8 +1384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.07421875" defaultRowHeight="15" customHeight="1"/>
@@ -986,10 +1421,10 @@
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="28"/>
+      <c r="E2" s="46"/>
       <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
@@ -1007,7 +1442,7 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G3" s="6">
         <v>2</v>
@@ -1065,7 +1500,7 @@
         <v>100</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="I5" s="1"/>
     </row>
@@ -1077,13 +1512,13 @@
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="F6" s="5">
         <v>3</v>
@@ -1092,7 +1527,7 @@
         <v>40</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I6" s="1"/>
     </row>
@@ -1112,16 +1547,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="F8" s="5">
         <v>3</v>
@@ -1130,7 +1565,7 @@
         <v>40</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I8" s="1"/>
     </row>
@@ -1144,16 +1579,16 @@
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="F10" s="5">
         <v>3</v>
@@ -1162,7 +1597,7 @@
         <v>70</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I10" s="1"/>
     </row>
@@ -1171,16 +1606,16 @@
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="E11" s="10" t="s">
         <v>27</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>28</v>
       </c>
       <c r="F11" s="10">
         <v>5</v>
@@ -1189,7 +1624,7 @@
         <v>40</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I11" s="1"/>
     </row>
@@ -1198,16 +1633,16 @@
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="F12" s="5">
         <v>3</v>
@@ -1216,7 +1651,7 @@
         <v>30</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I12" s="1"/>
     </row>
@@ -1225,16 +1660,16 @@
         <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="F13" s="5">
         <v>5</v>
@@ -1243,7 +1678,7 @@
         <v>40</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I13" s="1"/>
     </row>
@@ -1252,16 +1687,16 @@
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="F14" s="5">
         <v>5</v>
@@ -1270,7 +1705,7 @@
         <v>60</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I14" s="1"/>
     </row>
@@ -1283,7 +1718,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="6"/>
       <c r="H15" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I15" s="1"/>
     </row>
@@ -1292,21 +1727,21 @@
         <v>10</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="6">
         <v>40</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I16" s="1"/>
     </row>
@@ -1315,16 +1750,16 @@
         <v>11</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="F17" s="5">
         <v>5</v>
@@ -1333,7 +1768,7 @@
         <v>40</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I17" s="1"/>
     </row>
@@ -1342,16 +1777,16 @@
         <v>12</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="F18" s="5">
         <v>5</v>
@@ -1360,7 +1795,7 @@
         <v>56</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I18" s="1"/>
     </row>
@@ -1369,10 +1804,10 @@
         <v>13</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -1381,7 +1816,7 @@
         <v>114</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I19" s="1"/>
     </row>
@@ -1390,16 +1825,16 @@
         <v>14</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="F20" s="5">
         <v>5</v>
@@ -1408,7 +1843,7 @@
         <v>60</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I20" s="1"/>
     </row>
@@ -1417,13 +1852,13 @@
         <v>15</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G21" s="6">
         <v>8</v>
@@ -1444,7 +1879,7 @@
     <row r="23" spans="1:9" ht="20.25" customHeight="1">
       <c r="B23" s="12"/>
       <c r="C23" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
@@ -1455,7 +1890,7 @@
     <row r="24" spans="1:9" ht="20.25" customHeight="1">
       <c r="B24" s="12"/>
       <c r="C24" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
@@ -1466,7 +1901,7 @@
     <row r="25" spans="1:9" ht="20.25" customHeight="1">
       <c r="B25" s="12"/>
       <c r="C25" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
@@ -1484,7 +1919,7 @@
     <row r="27" spans="1:9" ht="20.25" customHeight="1">
       <c r="B27" s="12"/>
       <c r="C27" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
@@ -1497,7 +1932,7 @@
     </row>
     <row r="29" spans="1:9" ht="20.25" customHeight="1">
       <c r="C29" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H29" s="2"/>
     </row>
@@ -4432,4 +4867,1022 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I30"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="1" width="3.84375" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.61328125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.07421875" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.765625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.921875" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="3.84375" style="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="65.921875" style="27" customWidth="1"/>
+    <col min="9" max="9" width="9.23046875" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" s="28" customFormat="1">
+      <c r="C2" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="28">
+        <v>140</v>
+      </c>
+      <c r="E2" s="37"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+    </row>
+    <row r="3" spans="1:8" s="28" customFormat="1">
+      <c r="C3" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="28">
+        <v>100</v>
+      </c>
+      <c r="E3" s="37"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+    </row>
+    <row r="4" spans="1:8" s="28" customFormat="1">
+      <c r="C4" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="28">
+        <v>130</v>
+      </c>
+      <c r="E4" s="37"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+    </row>
+    <row r="5" spans="1:8" s="28" customFormat="1">
+      <c r="C5" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="28">
+        <v>50</v>
+      </c>
+      <c r="E5" s="37"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+    </row>
+    <row r="7" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1">
+      <c r="A7" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="48"/>
+      <c r="F7" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="27" customFormat="1" ht="17.399999999999999" customHeight="1" thickTop="1">
+      <c r="A8" s="30"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35">
+        <v>2</v>
+      </c>
+      <c r="H8" s="31"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="30"/>
+      <c r="B9" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="35">
+        <v>4</v>
+      </c>
+      <c r="G9" s="35">
+        <v>60</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="30"/>
+      <c r="B10" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="35">
+        <v>3</v>
+      </c>
+      <c r="G10" s="35">
+        <v>100</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="28" customFormat="1">
+      <c r="A11" s="30"/>
+      <c r="B11" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="35">
+        <v>3</v>
+      </c>
+      <c r="G11" s="35">
+        <v>40</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="27" customFormat="1">
+      <c r="A12" s="30"/>
+      <c r="B12" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="36">
+        <v>5</v>
+      </c>
+      <c r="G12" s="36">
+        <v>40</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="27" customFormat="1">
+      <c r="A13" s="30"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="30"/>
+    </row>
+    <row r="14" spans="1:8" s="27" customFormat="1" ht="21">
+      <c r="A14" s="30"/>
+      <c r="B14" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="35">
+        <v>114</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="27" customFormat="1" ht="21">
+      <c r="A15" s="30"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="30"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="30"/>
+      <c r="B16" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="35">
+        <v>3</v>
+      </c>
+      <c r="G16" s="35">
+        <v>70</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="30"/>
+      <c r="B17" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="35">
+        <v>5</v>
+      </c>
+      <c r="G17" s="35">
+        <v>60</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="27" customFormat="1">
+      <c r="A18" s="30"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="30"/>
+    </row>
+    <row r="19" spans="1:8" s="27" customFormat="1">
+      <c r="A19" s="30"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35">
+        <v>4</v>
+      </c>
+      <c r="H19" s="30"/>
+    </row>
+    <row r="20" spans="1:8" ht="21">
+      <c r="A20" s="30"/>
+      <c r="B20" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="34"/>
+      <c r="E20" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35">
+        <v>40</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="30"/>
+      <c r="B21" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="35">
+        <v>5</v>
+      </c>
+      <c r="G21" s="35">
+        <v>40</v>
+      </c>
+      <c r="H21" s="31" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="30"/>
+      <c r="B22" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="35">
+        <v>5</v>
+      </c>
+      <c r="G22" s="35">
+        <v>56</v>
+      </c>
+      <c r="H22" s="30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="27" customFormat="1">
+      <c r="A23" s="30"/>
+      <c r="B23" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="35">
+        <v>3</v>
+      </c>
+      <c r="G23" s="35">
+        <v>30</v>
+      </c>
+      <c r="H23" s="31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="27" customFormat="1">
+      <c r="A24" s="30"/>
+      <c r="B24" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="35">
+        <v>5</v>
+      </c>
+      <c r="G24" s="35">
+        <v>40</v>
+      </c>
+      <c r="H24" s="30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="27" customFormat="1">
+      <c r="A25" s="30"/>
+      <c r="B25" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="35">
+        <v>3</v>
+      </c>
+      <c r="G25" s="35">
+        <v>40</v>
+      </c>
+      <c r="H25" s="30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="27" customFormat="1">
+      <c r="A26" s="30"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="30"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="30"/>
+      <c r="B27" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="35">
+        <v>5</v>
+      </c>
+      <c r="G27" s="35">
+        <v>21</v>
+      </c>
+      <c r="H27" s="30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="27" customFormat="1">
+      <c r="A28" s="30"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35">
+        <v>3</v>
+      </c>
+      <c r="H28" s="30"/>
+    </row>
+    <row r="29" spans="1:8" s="27" customFormat="1">
+      <c r="A29" s="30"/>
+      <c r="B29" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" s="35">
+        <v>5</v>
+      </c>
+      <c r="G29" s="35">
+        <v>39</v>
+      </c>
+      <c r="H29" s="30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="21">
+      <c r="A30" s="30"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="34"/>
+      <c r="E30" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="F30" s="39"/>
+      <c r="G30" s="35">
+        <v>1</v>
+      </c>
+      <c r="H30" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D7:E7"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="1" width="23.15234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.53515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.53515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="3.84375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="73.07421875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" s="28" customFormat="1">
+      <c r="A2" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="28">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="28" customFormat="1">
+      <c r="A3" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="28">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="28" customFormat="1">
+      <c r="A4" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="28">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="28" customFormat="1">
+      <c r="A5" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="28" customFormat="1">
+      <c r="A6" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="28">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="28" customFormat="1">
+      <c r="A7" s="50"/>
+    </row>
+    <row r="8" spans="1:6" s="28" customFormat="1"/>
+    <row r="9" spans="1:6" ht="21.6" thickBot="1">
+      <c r="A9" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="48"/>
+      <c r="D9" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18" thickTop="1">
+      <c r="A10" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35">
+        <v>2</v>
+      </c>
+      <c r="F10" s="31"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="35">
+        <v>4</v>
+      </c>
+      <c r="E11" s="35">
+        <v>60</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="35">
+        <v>3</v>
+      </c>
+      <c r="E12" s="35">
+        <v>100</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="28" customFormat="1">
+      <c r="A13" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="35">
+        <v>3</v>
+      </c>
+      <c r="E13" s="35">
+        <v>70</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="35">
+        <v>3</v>
+      </c>
+      <c r="E14" s="35">
+        <v>40</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="33"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="30"/>
+    </row>
+    <row r="16" spans="1:6" ht="21">
+      <c r="A16" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="35">
+        <v>114</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="21">
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="30"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="36">
+        <v>5</v>
+      </c>
+      <c r="E18" s="36">
+        <v>40</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="35">
+        <v>5</v>
+      </c>
+      <c r="E19" s="35">
+        <v>60</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="30"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35">
+        <v>4</v>
+      </c>
+      <c r="F21" s="30"/>
+    </row>
+    <row r="22" spans="1:6" ht="21">
+      <c r="A22" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="34"/>
+      <c r="C22" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35">
+        <v>40</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="35">
+        <v>5</v>
+      </c>
+      <c r="E23" s="35">
+        <v>40</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="35">
+        <v>5</v>
+      </c>
+      <c r="E24" s="35">
+        <v>56</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="35">
+        <v>3</v>
+      </c>
+      <c r="E25" s="35">
+        <v>30</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="35">
+        <v>5</v>
+      </c>
+      <c r="E26" s="35">
+        <v>40</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="35">
+        <v>3</v>
+      </c>
+      <c r="E27" s="35">
+        <v>40</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="30"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="35">
+        <v>5</v>
+      </c>
+      <c r="E29" s="35">
+        <v>21</v>
+      </c>
+      <c r="F29" s="30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35">
+        <v>3</v>
+      </c>
+      <c r="F30" s="30"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="35">
+        <v>5</v>
+      </c>
+      <c r="E31" s="35">
+        <v>39</v>
+      </c>
+      <c r="F31" s="30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="21">
+      <c r="A32" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="34"/>
+      <c r="C32" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="39"/>
+      <c r="E32" s="35">
+        <v>1</v>
+      </c>
+      <c r="F32" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B9:C9"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/(디지털컨버전스)자바( JAVA) 웹개발자 양성과정 5 G.xlsx
+++ b/(디지털컨버전스)자바( JAVA) 웹개발자 양성과정 5 G.xlsx
@@ -9,12 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20148" windowHeight="8232" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20148" windowHeight="8232" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1안-2021" sheetId="1" r:id="rId1"/>
-    <sheet name="2안-2022" sheetId="2" r:id="rId2"/>
-    <sheet name="3안-2022" sheetId="3" r:id="rId3"/>
+    <sheet name="4안-2022" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="95">
   <si>
     <t>번호</t>
   </si>
@@ -492,10 +491,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>웹 기초</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>서버 프로그래밍 및 통합구현</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -504,18 +499,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>프론트엔드, 개발환경</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>개인 프로젝트</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀 프로젝트</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>재량교과</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -536,42 +519,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>취업준비</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>기술면접 리뷰(개인작업, 팀작업 기초지식), 면접 자료 준비</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>포트폴리오준비, 발표준비 및 리뷰</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>프론트엔드</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>java, spring controller, uml class diagram</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>jpa(d ml, search, paging), rabbitmq, spring cloud(gateway, eureka)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>프론트엔드</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>웹 기초, 프론트엔드</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 구현, 보조강의:  redis session OAuth2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>배포 및 포트폴리오 정리</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -584,33 +531,7 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>프로젝트 구현: ec2, ubuntu, 명령어, next.js, spring jar 배포</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>테스트케이스, 분석 객체모델, 와이어프레임, opendata, apex-chart, redis cache,</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>웹기초</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(html/css/js)</t>
-    </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -654,57 +575,6 @@
         <family val="2"/>
       </rPr>
       <t>(java/spring/cloud)</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>백엔드</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>프론트엔드</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>심화</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -733,30 +603,6 @@
   </si>
   <si>
     <t>개인 프로젝트(react/next, hook, redux, ssr)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>html/css기초, git 기초 -&gt;  평가: my recipe</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>js기초, dom조작 -&gt; 평가: contact</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>typescript, react(next.js), redux -&gt; 평가: contact(redux)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>redux-saga, json-server, ssr/csr -&gt; 평가: saga, api get/post</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>java, spring controller, uml class diagram, axios(인라인기능)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>jpa(d ml, search, paging), redux-saga(페이지이동기능), rabbitmq, spring cloud(gateway, eureka)</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -796,15 +642,130 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>redux, ssr, 개인 프로젝트 기획 -&gt; 평가: contact 페이지 이동</t>
+    <t>typescript, react(next.js) -&gt; 평가: contact react</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>js기초, dom조작 -&gt; 평가: contact 인라인</t>
+    <t>프로젝트 구현, redis session OAuth2</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>typescript, react(next.js) -&gt; 평가: feed 인라인</t>
+    <t>프로젝트 구현, 보조강의:  ec2, ubuntu, 명령어, next.js, spring jar 배포</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>웹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로그래밍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기초</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(html/css/js)</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>재량교과</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>면접 준비 및 추가강의: react-native</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>면접준비 및 추가강의</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>git 기초, js기초, dom조작 -&gt; 평가: contact</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>재량교과</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>html/css기초, -&gt;  평가: my recipe</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>redux, redux-saga, json-server, ssr/csr -&gt; 평가: contact</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> jpa(d ml, search, paging), rabbitmq, spring cloud(gateway, eureka)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>java, uml class diagram, spring controller</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1013,7 +974,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1095,12 +1056,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1125,28 +1080,25 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1159,12 +1111,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1384,7 +1330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1001"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -1421,10 +1367,10 @@
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="46"/>
+      <c r="E2" s="43"/>
       <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
@@ -1500,7 +1446,7 @@
         <v>100</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="I5" s="1"/>
     </row>
@@ -4871,1016 +4817,436 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="3.84375" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.61328125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.07421875" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.765625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.921875" style="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="3.84375" style="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="65.921875" style="27" customWidth="1"/>
-    <col min="9" max="9" width="9.23046875" style="27"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:8" s="28" customFormat="1">
-      <c r="C2" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="28">
-        <v>140</v>
-      </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-    </row>
-    <row r="3" spans="1:8" s="28" customFormat="1">
-      <c r="C3" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="28">
-        <v>100</v>
-      </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-    </row>
-    <row r="4" spans="1:8" s="28" customFormat="1">
-      <c r="C4" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="28">
-        <v>130</v>
-      </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-    </row>
-    <row r="5" spans="1:8" s="28" customFormat="1">
-      <c r="C5" s="49" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="28">
-        <v>50</v>
-      </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-    </row>
-    <row r="7" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A7" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="48"/>
-      <c r="F7" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="44" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="27" customFormat="1" ht="17.399999999999999" customHeight="1" thickTop="1">
-      <c r="A8" s="30"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35">
-        <v>2</v>
-      </c>
-      <c r="H8" s="31"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="30"/>
-      <c r="B9" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="35">
-        <v>4</v>
-      </c>
-      <c r="G9" s="35">
-        <v>60</v>
-      </c>
-      <c r="H9" s="29" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="30"/>
-      <c r="B10" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="35">
-        <v>3</v>
-      </c>
-      <c r="G10" s="35">
-        <v>100</v>
-      </c>
-      <c r="H10" s="30" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="28" customFormat="1">
-      <c r="A11" s="30"/>
-      <c r="B11" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="35">
-        <v>3</v>
-      </c>
-      <c r="G11" s="35">
-        <v>40</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="27" customFormat="1">
-      <c r="A12" s="30"/>
-      <c r="B12" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="36">
-        <v>5</v>
-      </c>
-      <c r="G12" s="36">
-        <v>40</v>
-      </c>
-      <c r="H12" s="30" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="27" customFormat="1">
-      <c r="A13" s="30"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="30"/>
-    </row>
-    <row r="14" spans="1:8" s="27" customFormat="1" ht="21">
-      <c r="A14" s="30"/>
-      <c r="B14" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="35">
-        <v>114</v>
-      </c>
-      <c r="H14" s="30" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="27" customFormat="1" ht="21">
-      <c r="A15" s="30"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="30"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="30"/>
-      <c r="B16" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="35">
-        <v>3</v>
-      </c>
-      <c r="G16" s="35">
-        <v>70</v>
-      </c>
-      <c r="H16" s="30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="30"/>
-      <c r="B17" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="35">
-        <v>5</v>
-      </c>
-      <c r="G17" s="35">
-        <v>60</v>
-      </c>
-      <c r="H17" s="30" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="27" customFormat="1">
-      <c r="A18" s="30"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="30"/>
-    </row>
-    <row r="19" spans="1:8" s="27" customFormat="1">
-      <c r="A19" s="30"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35">
-        <v>4</v>
-      </c>
-      <c r="H19" s="30"/>
-    </row>
-    <row r="20" spans="1:8" ht="21">
-      <c r="A20" s="30"/>
-      <c r="B20" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35">
-        <v>40</v>
-      </c>
-      <c r="H20" s="31" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="30"/>
-      <c r="B21" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="35">
-        <v>5</v>
-      </c>
-      <c r="G21" s="35">
-        <v>40</v>
-      </c>
-      <c r="H21" s="31" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="30"/>
-      <c r="B22" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="35">
-        <v>5</v>
-      </c>
-      <c r="G22" s="35">
-        <v>56</v>
-      </c>
-      <c r="H22" s="30" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="27" customFormat="1">
-      <c r="A23" s="30"/>
-      <c r="B23" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" s="35">
-        <v>3</v>
-      </c>
-      <c r="G23" s="35">
-        <v>30</v>
-      </c>
-      <c r="H23" s="31" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="27" customFormat="1">
-      <c r="A24" s="30"/>
-      <c r="B24" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" s="35">
-        <v>5</v>
-      </c>
-      <c r="G24" s="35">
-        <v>40</v>
-      </c>
-      <c r="H24" s="30" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="27" customFormat="1">
-      <c r="A25" s="30"/>
-      <c r="B25" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" s="35">
-        <v>3</v>
-      </c>
-      <c r="G25" s="35">
-        <v>40</v>
-      </c>
-      <c r="H25" s="30" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="27" customFormat="1">
-      <c r="A26" s="30"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="30"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="30"/>
-      <c r="B27" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="35">
-        <v>5</v>
-      </c>
-      <c r="G27" s="35">
-        <v>21</v>
-      </c>
-      <c r="H27" s="30" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="27" customFormat="1">
-      <c r="A28" s="30"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35">
-        <v>3</v>
-      </c>
-      <c r="H28" s="30"/>
-    </row>
-    <row r="29" spans="1:8" s="27" customFormat="1">
-      <c r="A29" s="30"/>
-      <c r="B29" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="D29" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="F29" s="35">
-        <v>5</v>
-      </c>
-      <c r="G29" s="35">
-        <v>39</v>
-      </c>
-      <c r="H29" s="30" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="21">
-      <c r="A30" s="30"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" s="34"/>
-      <c r="E30" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="F30" s="39"/>
-      <c r="G30" s="35">
-        <v>1</v>
-      </c>
-      <c r="H30" s="31"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D7:E7"/>
-  </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F32"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
-  <cols>
-    <col min="1" max="1" width="23.15234375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.4609375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.53515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.53515625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="3.84375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="73.07421875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" s="28" customFormat="1">
-      <c r="A2" s="49" t="s">
+    <row r="1" spans="1:6" s="38" customFormat="1"/>
+    <row r="2" spans="1:6" s="38" customFormat="1">
+      <c r="A2" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="38">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="38" customFormat="1">
+      <c r="A3" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="38">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="38" customFormat="1">
+      <c r="A4" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="38">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="38" customFormat="1">
+      <c r="A5" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="38">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="38">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="38" customFormat="1">
+      <c r="A7" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="38" customFormat="1">
+      <c r="A8" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="38" customFormat="1">
+      <c r="A9" s="41"/>
+    </row>
+    <row r="10" spans="1:6" ht="21.6" thickBot="1">
+      <c r="A10" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="45"/>
+      <c r="D10" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18" thickTop="1">
+      <c r="A11" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33">
+        <v>2</v>
+      </c>
+      <c r="F11" s="29"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="33">
+        <v>4</v>
+      </c>
+      <c r="E12" s="33">
+        <v>60</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="33">
+        <v>3</v>
+      </c>
+      <c r="E13" s="33">
+        <v>100</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="33">
+        <v>3</v>
+      </c>
+      <c r="E14" s="33">
+        <v>40</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="38" customFormat="1">
+      <c r="A15" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="33">
+        <v>5</v>
+      </c>
+      <c r="E15" s="33">
+        <v>60</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="21">
+      <c r="A17" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="33">
+        <v>114</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="21">
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="28"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="33">
+        <v>3</v>
+      </c>
+      <c r="E19" s="33">
+        <v>70</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="38" customFormat="1">
+      <c r="A20" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="33">
+        <v>5</v>
+      </c>
+      <c r="E20" s="33">
+        <v>60</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="28">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="28" customFormat="1">
-      <c r="A3" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" s="28">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="28" customFormat="1">
-      <c r="A4" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4" s="28">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="28" customFormat="1">
-      <c r="A5" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" s="28">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="28" customFormat="1">
-      <c r="A6" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="B6" s="28">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="28" customFormat="1">
-      <c r="A7" s="50"/>
-    </row>
-    <row r="8" spans="1:6" s="28" customFormat="1"/>
-    <row r="9" spans="1:6" ht="21.6" thickBot="1">
-      <c r="A9" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="47" t="s">
+      <c r="B22" s="31"/>
+      <c r="C22" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33">
+        <v>4</v>
+      </c>
+      <c r="F22" s="28"/>
+    </row>
+    <row r="23" spans="1:6" ht="21">
+      <c r="A23" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="32"/>
+      <c r="C23" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33">
+        <v>40</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="33">
+        <v>5</v>
+      </c>
+      <c r="E24" s="33">
+        <v>40</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="33">
+        <v>5</v>
+      </c>
+      <c r="E25" s="33">
+        <v>56</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="38" customFormat="1">
+      <c r="A26" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="34">
+        <v>5</v>
+      </c>
+      <c r="E26" s="34">
+        <v>40</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="33">
         <v>3</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="43" t="s">
+      <c r="E27" s="33">
+        <v>30</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="33">
         <v>5</v>
       </c>
-      <c r="F9" s="44" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="18" thickTop="1">
-      <c r="A10" s="33" t="s">
+      <c r="E28" s="33">
+        <v>40</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="38" customFormat="1">
+      <c r="A29" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33">
+        <v>3</v>
+      </c>
+      <c r="F29" s="28"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="33">
+        <v>3</v>
+      </c>
+      <c r="E30" s="33">
+        <v>40</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="21">
+      <c r="A31" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="32"/>
+      <c r="C31" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35">
-        <v>2</v>
-      </c>
-      <c r="F10" s="31"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="35">
-        <v>4</v>
-      </c>
-      <c r="E11" s="35">
-        <v>60</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="35">
-        <v>3</v>
-      </c>
-      <c r="E12" s="35">
-        <v>100</v>
-      </c>
-      <c r="F12" s="30" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="28" customFormat="1">
-      <c r="A13" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="35">
-        <v>3</v>
-      </c>
-      <c r="E13" s="35">
-        <v>70</v>
-      </c>
-      <c r="F13" s="30" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="35">
-        <v>3</v>
-      </c>
-      <c r="E14" s="35">
-        <v>40</v>
-      </c>
-      <c r="F14" s="30" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="33"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="30"/>
-    </row>
-    <row r="16" spans="1:6" ht="21">
-      <c r="A16" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="35">
-        <v>114</v>
-      </c>
-      <c r="F16" s="30" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="21">
-      <c r="A17" s="33"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="30"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="36">
-        <v>5</v>
-      </c>
-      <c r="E18" s="36">
-        <v>40</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="35">
-        <v>5</v>
-      </c>
-      <c r="E19" s="35">
-        <v>60</v>
-      </c>
-      <c r="F19" s="30" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="33"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="30"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35">
-        <v>4</v>
-      </c>
-      <c r="F21" s="30"/>
-    </row>
-    <row r="22" spans="1:6" ht="21">
-      <c r="A22" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35">
-        <v>40</v>
-      </c>
-      <c r="F22" s="31" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="35">
-        <v>5</v>
-      </c>
-      <c r="E23" s="35">
-        <v>40</v>
-      </c>
-      <c r="F23" s="31" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="35">
-        <v>5</v>
-      </c>
-      <c r="E24" s="35">
-        <v>56</v>
-      </c>
-      <c r="F24" s="30" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="35">
-        <v>3</v>
-      </c>
-      <c r="E25" s="35">
-        <v>30</v>
-      </c>
-      <c r="F25" s="31" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="35">
-        <v>5</v>
-      </c>
-      <c r="E26" s="35">
-        <v>40</v>
-      </c>
-      <c r="F26" s="30" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="35">
-        <v>3</v>
-      </c>
-      <c r="E27" s="35">
-        <v>40</v>
-      </c>
-      <c r="F27" s="30" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="33"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="30"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" s="35">
-        <v>5</v>
-      </c>
-      <c r="E29" s="35">
-        <v>21</v>
-      </c>
-      <c r="F29" s="30" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35">
-        <v>3</v>
-      </c>
-      <c r="F30" s="30"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="D31" s="35">
-        <v>5</v>
-      </c>
-      <c r="E31" s="35">
-        <v>39</v>
-      </c>
-      <c r="F31" s="30" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="21">
-      <c r="A32" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="B32" s="34"/>
-      <c r="C32" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="D32" s="39"/>
-      <c r="E32" s="35">
+      <c r="D31" s="35"/>
+      <c r="E31" s="33">
         <v>1</v>
       </c>
-      <c r="F32" s="31"/>
+      <c r="F31" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
